--- a/biology/Botanique/Espostoa_lanata/Espostoa_lanata.xlsx
+++ b/biology/Botanique/Espostoa_lanata/Espostoa_lanata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Espostoa lanata (Espostoa laineux) est une espèce de plantes à fleurs du genre Espostoa de la famille des Cactaceae.
 Son habitat s'étend du sud de l'Équateur au nord du Pérou sur les pentes occidentales des Andes. Il parfois appelé le vieil homme péruvien en raison de ses poils blancs.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espostoa lanata est un cactus colonnaire[1]. Il ressemble à Cephalocereus senilis (le vieil homme du Mexique) : c'est une espèce recouverte de poils blancs qui lui assurent une protection contre le froid et le gel. Elle est très répandue dans sa région d'origine sous des formes variables qui ont conduit à lui donner différents noms[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espostoa lanata est un cactus colonnaire. Il ressemble à Cephalocereus senilis (le vieil homme du Mexique) : c'est une espèce recouverte de poils blancs qui lui assurent une protection contre le froid et le gel. Elle est très répandue dans sa région d'origine sous des formes variables qui ont conduit à lui donner différents noms.
 Il se présente comme une colonne pouvant attendre 7 mètres dans la nature, mais seulement 3 mètres en culture. Le diamètre varie de 5 à 20 cm avec de 18 à 25 côtes. Ses côtes et les fortes épines sont en grande partie cachées par le tissu laineux.
 La colonne se divise seulement après plusieurs années. Il fleurit la nuit à partir d'un céphalium latéral après plusieurs années. Sa laine a parfois été utilisé pour garnir des oreillers au Pérou.
 </t>
@@ -545,9 +559,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espostoa lanata est facile à cultiver[1]. Il demande un sol fertile et bien drainé. En été, il faut l'arroser largement, puis attendre que la plante sèche avant d'arroser de nouveau. Il faut utiliser une fois par mois un engrais pour cactus.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espostoa lanata est facile à cultiver. Il demande un sol fertile et bien drainé. En été, il faut l'arroser largement, puis attendre que la plante sèche avant d'arroser de nouveau. Il faut utiliser une fois par mois un engrais pour cactus.
 Il est nécessaire de le garder au sec en hiver européen et la température peut descendre jusqu'à -12 °C, mais il est préférable de le garder hors gel. L'exposition doit être ensoleillée en été et au moins claire en hiver.
 Dans des conditions favorables (ensoleillement, arrosage, suffisamment de place), il peut croître de 20 cm par an.
 </t>
@@ -578,18 +594,20 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 septembre 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 septembre 2015) :
 sous-espèce Espostoa lanata subsp. huanucoensis
 sous-espèce Espostoa lanata subsp. lanata
 sous-espèce Espostoa lanata subsp. lanianuligera
 sous-espèce Espostoa lanata subsp. ruficeps
-Selon The Plant List            (26 septembre 2015)[3] :
+Selon The Plant List            (26 septembre 2015) :
 sous-espèce Espostoa lanata subsp. huanucoensis (F.Ritter) G.J.Charles
 sous-espèce Espostoa lanata subsp. lanianuligera (F.Ritter) G.J.Charles
 sous-espèce Espostoa lanata subsp. ruficeps (F.Ritter) G.J.Charles
-Selon Tropicos                                           (26 septembre 2015)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 septembre 2015) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Espostoa lanata subsp. huanucoensis G.J. Charles
 sous-espèce Espostoa lanata subsp. lanata
 sous-espèce Espostoa lanata subsp. lanianuligera (F. Ritter) G.J. Charles
